--- a/Tables-Figures.xlsx
+++ b/Tables-Figures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yundongjun/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naldo/project/jestfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4B3AE5-D23E-4041-A020-313E685B3FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A9D4A3-8B70-F84F-961B-CA3E8DFB8CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
     <sheet name="bugs" sheetId="9" r:id="rId9"/>
     <sheet name="0-bug" sheetId="10" r:id="rId10"/>
     <sheet name="1-bug" sheetId="11" r:id="rId11"/>
-    <sheet name="1-cp-bug" sheetId="12" r:id="rId12"/>
-    <sheet name="2-bug" sheetId="13" r:id="rId13"/>
+    <sheet name="2-bug" sheetId="13" r:id="rId12"/>
+    <sheet name="1-cp-bug" sheetId="12" r:id="rId13"/>
     <sheet name="2-cp-bug" sheetId="14" r:id="rId14"/>
     <sheet name="0-summary" sheetId="15" r:id="rId15"/>
     <sheet name="1-summary" sheetId="16" r:id="rId16"/>
@@ -41,9 +41,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1597,9 +1600,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1787,7 +1790,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1805,9 +1808,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1839,7 +1842,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1857,7 +1860,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -3835,7 +3838,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1294933754"/>
@@ -3920,7 +3923,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2110582995"/>
@@ -3948,7 +3951,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -4783,7 +4786,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1893719996"/>
@@ -4868,7 +4871,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1913780644"/>
@@ -4891,7 +4894,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -5450,7 +5453,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1413957126"/>
@@ -5535,7 +5538,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1720860499"/>
@@ -5558,7 +5561,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5595,7 +5598,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-Kore-KR"/>
+          <a:endParaRPr lang="en-KR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6032,7 +6035,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2147053807"/>
@@ -6092,7 +6095,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="137310224"/>
@@ -6133,7 +6136,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-Kore-KR"/>
+      <a:endParaRPr lang="en-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6147,7 +6150,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -6922,7 +6925,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1370441420"/>
@@ -6998,7 +7001,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1570410885"/>
@@ -7021,7 +7024,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-Kore-KR"/>
+          <a:endParaRPr lang="en-KR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7040,7 +7043,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -7815,7 +7818,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="147551901"/>
@@ -7891,7 +7894,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="135107415"/>
@@ -7914,7 +7917,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-Kore-KR"/>
+          <a:endParaRPr lang="en-KR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7933,7 +7936,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -8708,7 +8711,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1307990150"/>
@@ -8784,7 +8787,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="58294489"/>
@@ -8807,7 +8810,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-Kore-KR"/>
+          <a:endParaRPr lang="en-KR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8826,7 +8829,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -9601,7 +9604,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="935239326"/>
@@ -9677,7 +9680,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838794474"/>
@@ -9700,7 +9703,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-Kore-KR"/>
+          <a:endParaRPr lang="en-KR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9719,7 +9722,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -10494,7 +10497,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="636176271"/>
@@ -10570,7 +10573,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="en-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1103196611"/>
@@ -10593,7 +10596,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-Kore-KR"/>
+          <a:endParaRPr lang="en-KR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11664,8 +11667,8 @@
   </sheetPr>
   <dimension ref="A1:N984"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15145,7 +15148,9 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15384,123 +15389,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="109.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="C2" s="19">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" s="19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="C4" s="19">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="C6" s="19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="C7" s="19">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="C8" s="19">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="C9" s="19">
-        <v>335</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -15611,6 +15499,125 @@
       </c>
       <c r="C9" s="19">
         <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="109.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="19">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="19">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="19">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="19">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -26098,7 +26105,7 @@
   <dimension ref="A1:B305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
